--- a/decide/census/testImport3.xlsx
+++ b/decide/census/testImport3.xlsx
@@ -153,10 +153,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -174,7 +174,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>87885</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -183,11 +183,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>363</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="n">
+        <v>52414</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -195,12 +197,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -208,11 +210,13 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>56</v>
+        <v>68688</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
